--- a/tests/fixtures/descision_table_mini.xlsx
+++ b/tests/fixtures/descision_table_mini.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torstenlink/Documents/entwicklung/xhubioTable/importer-xlsx/tests/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torstenlink/Documents/entwicklung/xhubioTableTs/importer-xlsx/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A74A81-6081-2F42-B21D-E37762125D07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97710843-86B6-B442-A6BC-BDCEB9815F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3060" windowWidth="23440" windowHeight="11860" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17200" yWindow="-15700" windowWidth="23440" windowHeight="11860" tabRatio="398" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manyColumns" sheetId="1" r:id="rId1"/>
     <sheet name="manyRows" sheetId="2" r:id="rId2"/>
+    <sheet name="Person_with_friend" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7955" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7989" uniqueCount="1427">
   <si>
     <t>&lt;DECISION_TABLE&gt;</t>
   </si>
@@ -4272,6 +4286,36 @@
   </si>
   <si>
     <t>Row 1389</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>same as email</t>
+  </si>
+  <si>
+    <t>ref::Person::[1-4]</t>
+  </si>
+  <si>
+    <t>GenSwitch</t>
+  </si>
+  <si>
+    <t>GeneratorSwitchSection</t>
+  </si>
+  <si>
+    <t>GeneratorName</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gumbo</t>
+  </si>
+  <si>
+    <t>bazong</t>
   </si>
 </sst>
 </file>
@@ -4306,7 +4350,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4331,6 +4375,18 @@
         <bgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4345,7 +4401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -4367,6 +4423,29 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4839,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ANJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AMM2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="WN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="IV1" sqref="IV1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="ANC19" sqref="ANC19"/>
@@ -39598,7 +39677,7 @@
   <dimension ref="A1:IV1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="IV1380" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="IG828" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="IV1" sqref="IV1"/>
       <selection pane="bottomLeft" activeCell="A1380" sqref="A1380"/>
       <selection pane="bottomRight" activeCell="C1387" sqref="C1387"/>
@@ -60504,4 +60583,724 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0FC3A-17F2-CE41-B0BB-92A17B4F2F34}">
+  <dimension ref="A1:IN11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="23" customWidth="1"/>
+    <col min="10" max="248" width="9.33203125" style="1" customWidth="1"/>
+    <col min="257" max="257" width="16.5" customWidth="1"/>
+    <col min="258" max="258" width="20" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="16.5" customWidth="1"/>
+    <col min="260" max="260" width="41.83203125" customWidth="1"/>
+    <col min="261" max="261" width="22.5" customWidth="1"/>
+    <col min="262" max="265" width="3.5" customWidth="1"/>
+    <col min="266" max="504" width="9.33203125" customWidth="1"/>
+    <col min="513" max="513" width="16.5" customWidth="1"/>
+    <col min="514" max="514" width="20" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="16.5" customWidth="1"/>
+    <col min="516" max="516" width="41.83203125" customWidth="1"/>
+    <col min="517" max="517" width="22.5" customWidth="1"/>
+    <col min="518" max="521" width="3.5" customWidth="1"/>
+    <col min="522" max="760" width="9.33203125" customWidth="1"/>
+    <col min="769" max="769" width="16.5" customWidth="1"/>
+    <col min="770" max="770" width="20" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="16.5" customWidth="1"/>
+    <col min="772" max="772" width="41.83203125" customWidth="1"/>
+    <col min="773" max="773" width="22.5" customWidth="1"/>
+    <col min="774" max="777" width="3.5" customWidth="1"/>
+    <col min="778" max="1016" width="9.33203125" customWidth="1"/>
+    <col min="1025" max="1025" width="16.5" customWidth="1"/>
+    <col min="1026" max="1026" width="20" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="16.5" customWidth="1"/>
+    <col min="1028" max="1028" width="41.83203125" customWidth="1"/>
+    <col min="1029" max="1029" width="22.5" customWidth="1"/>
+    <col min="1030" max="1033" width="3.5" customWidth="1"/>
+    <col min="1034" max="1272" width="9.33203125" customWidth="1"/>
+    <col min="1281" max="1281" width="16.5" customWidth="1"/>
+    <col min="1282" max="1282" width="20" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="16.5" customWidth="1"/>
+    <col min="1284" max="1284" width="41.83203125" customWidth="1"/>
+    <col min="1285" max="1285" width="22.5" customWidth="1"/>
+    <col min="1286" max="1289" width="3.5" customWidth="1"/>
+    <col min="1290" max="1528" width="9.33203125" customWidth="1"/>
+    <col min="1537" max="1537" width="16.5" customWidth="1"/>
+    <col min="1538" max="1538" width="20" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="16.5" customWidth="1"/>
+    <col min="1540" max="1540" width="41.83203125" customWidth="1"/>
+    <col min="1541" max="1541" width="22.5" customWidth="1"/>
+    <col min="1542" max="1545" width="3.5" customWidth="1"/>
+    <col min="1546" max="1784" width="9.33203125" customWidth="1"/>
+    <col min="1793" max="1793" width="16.5" customWidth="1"/>
+    <col min="1794" max="1794" width="20" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="16.5" customWidth="1"/>
+    <col min="1796" max="1796" width="41.83203125" customWidth="1"/>
+    <col min="1797" max="1797" width="22.5" customWidth="1"/>
+    <col min="1798" max="1801" width="3.5" customWidth="1"/>
+    <col min="1802" max="2040" width="9.33203125" customWidth="1"/>
+    <col min="2049" max="2049" width="16.5" customWidth="1"/>
+    <col min="2050" max="2050" width="20" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="16.5" customWidth="1"/>
+    <col min="2052" max="2052" width="41.83203125" customWidth="1"/>
+    <col min="2053" max="2053" width="22.5" customWidth="1"/>
+    <col min="2054" max="2057" width="3.5" customWidth="1"/>
+    <col min="2058" max="2296" width="9.33203125" customWidth="1"/>
+    <col min="2305" max="2305" width="16.5" customWidth="1"/>
+    <col min="2306" max="2306" width="20" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="16.5" customWidth="1"/>
+    <col min="2308" max="2308" width="41.83203125" customWidth="1"/>
+    <col min="2309" max="2309" width="22.5" customWidth="1"/>
+    <col min="2310" max="2313" width="3.5" customWidth="1"/>
+    <col min="2314" max="2552" width="9.33203125" customWidth="1"/>
+    <col min="2561" max="2561" width="16.5" customWidth="1"/>
+    <col min="2562" max="2562" width="20" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="16.5" customWidth="1"/>
+    <col min="2564" max="2564" width="41.83203125" customWidth="1"/>
+    <col min="2565" max="2565" width="22.5" customWidth="1"/>
+    <col min="2566" max="2569" width="3.5" customWidth="1"/>
+    <col min="2570" max="2808" width="9.33203125" customWidth="1"/>
+    <col min="2817" max="2817" width="16.5" customWidth="1"/>
+    <col min="2818" max="2818" width="20" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="16.5" customWidth="1"/>
+    <col min="2820" max="2820" width="41.83203125" customWidth="1"/>
+    <col min="2821" max="2821" width="22.5" customWidth="1"/>
+    <col min="2822" max="2825" width="3.5" customWidth="1"/>
+    <col min="2826" max="3064" width="9.33203125" customWidth="1"/>
+    <col min="3073" max="3073" width="16.5" customWidth="1"/>
+    <col min="3074" max="3074" width="20" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="16.5" customWidth="1"/>
+    <col min="3076" max="3076" width="41.83203125" customWidth="1"/>
+    <col min="3077" max="3077" width="22.5" customWidth="1"/>
+    <col min="3078" max="3081" width="3.5" customWidth="1"/>
+    <col min="3082" max="3320" width="9.33203125" customWidth="1"/>
+    <col min="3329" max="3329" width="16.5" customWidth="1"/>
+    <col min="3330" max="3330" width="20" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="16.5" customWidth="1"/>
+    <col min="3332" max="3332" width="41.83203125" customWidth="1"/>
+    <col min="3333" max="3333" width="22.5" customWidth="1"/>
+    <col min="3334" max="3337" width="3.5" customWidth="1"/>
+    <col min="3338" max="3576" width="9.33203125" customWidth="1"/>
+    <col min="3585" max="3585" width="16.5" customWidth="1"/>
+    <col min="3586" max="3586" width="20" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="16.5" customWidth="1"/>
+    <col min="3588" max="3588" width="41.83203125" customWidth="1"/>
+    <col min="3589" max="3589" width="22.5" customWidth="1"/>
+    <col min="3590" max="3593" width="3.5" customWidth="1"/>
+    <col min="3594" max="3832" width="9.33203125" customWidth="1"/>
+    <col min="3841" max="3841" width="16.5" customWidth="1"/>
+    <col min="3842" max="3842" width="20" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="16.5" customWidth="1"/>
+    <col min="3844" max="3844" width="41.83203125" customWidth="1"/>
+    <col min="3845" max="3845" width="22.5" customWidth="1"/>
+    <col min="3846" max="3849" width="3.5" customWidth="1"/>
+    <col min="3850" max="4088" width="9.33203125" customWidth="1"/>
+    <col min="4097" max="4097" width="16.5" customWidth="1"/>
+    <col min="4098" max="4098" width="20" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="16.5" customWidth="1"/>
+    <col min="4100" max="4100" width="41.83203125" customWidth="1"/>
+    <col min="4101" max="4101" width="22.5" customWidth="1"/>
+    <col min="4102" max="4105" width="3.5" customWidth="1"/>
+    <col min="4106" max="4344" width="9.33203125" customWidth="1"/>
+    <col min="4353" max="4353" width="16.5" customWidth="1"/>
+    <col min="4354" max="4354" width="20" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="16.5" customWidth="1"/>
+    <col min="4356" max="4356" width="41.83203125" customWidth="1"/>
+    <col min="4357" max="4357" width="22.5" customWidth="1"/>
+    <col min="4358" max="4361" width="3.5" customWidth="1"/>
+    <col min="4362" max="4600" width="9.33203125" customWidth="1"/>
+    <col min="4609" max="4609" width="16.5" customWidth="1"/>
+    <col min="4610" max="4610" width="20" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="16.5" customWidth="1"/>
+    <col min="4612" max="4612" width="41.83203125" customWidth="1"/>
+    <col min="4613" max="4613" width="22.5" customWidth="1"/>
+    <col min="4614" max="4617" width="3.5" customWidth="1"/>
+    <col min="4618" max="4856" width="9.33203125" customWidth="1"/>
+    <col min="4865" max="4865" width="16.5" customWidth="1"/>
+    <col min="4866" max="4866" width="20" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="16.5" customWidth="1"/>
+    <col min="4868" max="4868" width="41.83203125" customWidth="1"/>
+    <col min="4869" max="4869" width="22.5" customWidth="1"/>
+    <col min="4870" max="4873" width="3.5" customWidth="1"/>
+    <col min="4874" max="5112" width="9.33203125" customWidth="1"/>
+    <col min="5121" max="5121" width="16.5" customWidth="1"/>
+    <col min="5122" max="5122" width="20" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="16.5" customWidth="1"/>
+    <col min="5124" max="5124" width="41.83203125" customWidth="1"/>
+    <col min="5125" max="5125" width="22.5" customWidth="1"/>
+    <col min="5126" max="5129" width="3.5" customWidth="1"/>
+    <col min="5130" max="5368" width="9.33203125" customWidth="1"/>
+    <col min="5377" max="5377" width="16.5" customWidth="1"/>
+    <col min="5378" max="5378" width="20" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="16.5" customWidth="1"/>
+    <col min="5380" max="5380" width="41.83203125" customWidth="1"/>
+    <col min="5381" max="5381" width="22.5" customWidth="1"/>
+    <col min="5382" max="5385" width="3.5" customWidth="1"/>
+    <col min="5386" max="5624" width="9.33203125" customWidth="1"/>
+    <col min="5633" max="5633" width="16.5" customWidth="1"/>
+    <col min="5634" max="5634" width="20" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="16.5" customWidth="1"/>
+    <col min="5636" max="5636" width="41.83203125" customWidth="1"/>
+    <col min="5637" max="5637" width="22.5" customWidth="1"/>
+    <col min="5638" max="5641" width="3.5" customWidth="1"/>
+    <col min="5642" max="5880" width="9.33203125" customWidth="1"/>
+    <col min="5889" max="5889" width="16.5" customWidth="1"/>
+    <col min="5890" max="5890" width="20" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="16.5" customWidth="1"/>
+    <col min="5892" max="5892" width="41.83203125" customWidth="1"/>
+    <col min="5893" max="5893" width="22.5" customWidth="1"/>
+    <col min="5894" max="5897" width="3.5" customWidth="1"/>
+    <col min="5898" max="6136" width="9.33203125" customWidth="1"/>
+    <col min="6145" max="6145" width="16.5" customWidth="1"/>
+    <col min="6146" max="6146" width="20" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="16.5" customWidth="1"/>
+    <col min="6148" max="6148" width="41.83203125" customWidth="1"/>
+    <col min="6149" max="6149" width="22.5" customWidth="1"/>
+    <col min="6150" max="6153" width="3.5" customWidth="1"/>
+    <col min="6154" max="6392" width="9.33203125" customWidth="1"/>
+    <col min="6401" max="6401" width="16.5" customWidth="1"/>
+    <col min="6402" max="6402" width="20" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="16.5" customWidth="1"/>
+    <col min="6404" max="6404" width="41.83203125" customWidth="1"/>
+    <col min="6405" max="6405" width="22.5" customWidth="1"/>
+    <col min="6406" max="6409" width="3.5" customWidth="1"/>
+    <col min="6410" max="6648" width="9.33203125" customWidth="1"/>
+    <col min="6657" max="6657" width="16.5" customWidth="1"/>
+    <col min="6658" max="6658" width="20" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="16.5" customWidth="1"/>
+    <col min="6660" max="6660" width="41.83203125" customWidth="1"/>
+    <col min="6661" max="6661" width="22.5" customWidth="1"/>
+    <col min="6662" max="6665" width="3.5" customWidth="1"/>
+    <col min="6666" max="6904" width="9.33203125" customWidth="1"/>
+    <col min="6913" max="6913" width="16.5" customWidth="1"/>
+    <col min="6914" max="6914" width="20" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="16.5" customWidth="1"/>
+    <col min="6916" max="6916" width="41.83203125" customWidth="1"/>
+    <col min="6917" max="6917" width="22.5" customWidth="1"/>
+    <col min="6918" max="6921" width="3.5" customWidth="1"/>
+    <col min="6922" max="7160" width="9.33203125" customWidth="1"/>
+    <col min="7169" max="7169" width="16.5" customWidth="1"/>
+    <col min="7170" max="7170" width="20" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="16.5" customWidth="1"/>
+    <col min="7172" max="7172" width="41.83203125" customWidth="1"/>
+    <col min="7173" max="7173" width="22.5" customWidth="1"/>
+    <col min="7174" max="7177" width="3.5" customWidth="1"/>
+    <col min="7178" max="7416" width="9.33203125" customWidth="1"/>
+    <col min="7425" max="7425" width="16.5" customWidth="1"/>
+    <col min="7426" max="7426" width="20" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="16.5" customWidth="1"/>
+    <col min="7428" max="7428" width="41.83203125" customWidth="1"/>
+    <col min="7429" max="7429" width="22.5" customWidth="1"/>
+    <col min="7430" max="7433" width="3.5" customWidth="1"/>
+    <col min="7434" max="7672" width="9.33203125" customWidth="1"/>
+    <col min="7681" max="7681" width="16.5" customWidth="1"/>
+    <col min="7682" max="7682" width="20" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="16.5" customWidth="1"/>
+    <col min="7684" max="7684" width="41.83203125" customWidth="1"/>
+    <col min="7685" max="7685" width="22.5" customWidth="1"/>
+    <col min="7686" max="7689" width="3.5" customWidth="1"/>
+    <col min="7690" max="7928" width="9.33203125" customWidth="1"/>
+    <col min="7937" max="7937" width="16.5" customWidth="1"/>
+    <col min="7938" max="7938" width="20" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="16.5" customWidth="1"/>
+    <col min="7940" max="7940" width="41.83203125" customWidth="1"/>
+    <col min="7941" max="7941" width="22.5" customWidth="1"/>
+    <col min="7942" max="7945" width="3.5" customWidth="1"/>
+    <col min="7946" max="8184" width="9.33203125" customWidth="1"/>
+    <col min="8193" max="8193" width="16.5" customWidth="1"/>
+    <col min="8194" max="8194" width="20" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="16.5" customWidth="1"/>
+    <col min="8196" max="8196" width="41.83203125" customWidth="1"/>
+    <col min="8197" max="8197" width="22.5" customWidth="1"/>
+    <col min="8198" max="8201" width="3.5" customWidth="1"/>
+    <col min="8202" max="8440" width="9.33203125" customWidth="1"/>
+    <col min="8449" max="8449" width="16.5" customWidth="1"/>
+    <col min="8450" max="8450" width="20" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="16.5" customWidth="1"/>
+    <col min="8452" max="8452" width="41.83203125" customWidth="1"/>
+    <col min="8453" max="8453" width="22.5" customWidth="1"/>
+    <col min="8454" max="8457" width="3.5" customWidth="1"/>
+    <col min="8458" max="8696" width="9.33203125" customWidth="1"/>
+    <col min="8705" max="8705" width="16.5" customWidth="1"/>
+    <col min="8706" max="8706" width="20" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="16.5" customWidth="1"/>
+    <col min="8708" max="8708" width="41.83203125" customWidth="1"/>
+    <col min="8709" max="8709" width="22.5" customWidth="1"/>
+    <col min="8710" max="8713" width="3.5" customWidth="1"/>
+    <col min="8714" max="8952" width="9.33203125" customWidth="1"/>
+    <col min="8961" max="8961" width="16.5" customWidth="1"/>
+    <col min="8962" max="8962" width="20" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="16.5" customWidth="1"/>
+    <col min="8964" max="8964" width="41.83203125" customWidth="1"/>
+    <col min="8965" max="8965" width="22.5" customWidth="1"/>
+    <col min="8966" max="8969" width="3.5" customWidth="1"/>
+    <col min="8970" max="9208" width="9.33203125" customWidth="1"/>
+    <col min="9217" max="9217" width="16.5" customWidth="1"/>
+    <col min="9218" max="9218" width="20" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="16.5" customWidth="1"/>
+    <col min="9220" max="9220" width="41.83203125" customWidth="1"/>
+    <col min="9221" max="9221" width="22.5" customWidth="1"/>
+    <col min="9222" max="9225" width="3.5" customWidth="1"/>
+    <col min="9226" max="9464" width="9.33203125" customWidth="1"/>
+    <col min="9473" max="9473" width="16.5" customWidth="1"/>
+    <col min="9474" max="9474" width="20" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="16.5" customWidth="1"/>
+    <col min="9476" max="9476" width="41.83203125" customWidth="1"/>
+    <col min="9477" max="9477" width="22.5" customWidth="1"/>
+    <col min="9478" max="9481" width="3.5" customWidth="1"/>
+    <col min="9482" max="9720" width="9.33203125" customWidth="1"/>
+    <col min="9729" max="9729" width="16.5" customWidth="1"/>
+    <col min="9730" max="9730" width="20" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="16.5" customWidth="1"/>
+    <col min="9732" max="9732" width="41.83203125" customWidth="1"/>
+    <col min="9733" max="9733" width="22.5" customWidth="1"/>
+    <col min="9734" max="9737" width="3.5" customWidth="1"/>
+    <col min="9738" max="9976" width="9.33203125" customWidth="1"/>
+    <col min="9985" max="9985" width="16.5" customWidth="1"/>
+    <col min="9986" max="9986" width="20" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="16.5" customWidth="1"/>
+    <col min="9988" max="9988" width="41.83203125" customWidth="1"/>
+    <col min="9989" max="9989" width="22.5" customWidth="1"/>
+    <col min="9990" max="9993" width="3.5" customWidth="1"/>
+    <col min="9994" max="10232" width="9.33203125" customWidth="1"/>
+    <col min="10241" max="10241" width="16.5" customWidth="1"/>
+    <col min="10242" max="10242" width="20" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="16.5" customWidth="1"/>
+    <col min="10244" max="10244" width="41.83203125" customWidth="1"/>
+    <col min="10245" max="10245" width="22.5" customWidth="1"/>
+    <col min="10246" max="10249" width="3.5" customWidth="1"/>
+    <col min="10250" max="10488" width="9.33203125" customWidth="1"/>
+    <col min="10497" max="10497" width="16.5" customWidth="1"/>
+    <col min="10498" max="10498" width="20" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="16.5" customWidth="1"/>
+    <col min="10500" max="10500" width="41.83203125" customWidth="1"/>
+    <col min="10501" max="10501" width="22.5" customWidth="1"/>
+    <col min="10502" max="10505" width="3.5" customWidth="1"/>
+    <col min="10506" max="10744" width="9.33203125" customWidth="1"/>
+    <col min="10753" max="10753" width="16.5" customWidth="1"/>
+    <col min="10754" max="10754" width="20" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="16.5" customWidth="1"/>
+    <col min="10756" max="10756" width="41.83203125" customWidth="1"/>
+    <col min="10757" max="10757" width="22.5" customWidth="1"/>
+    <col min="10758" max="10761" width="3.5" customWidth="1"/>
+    <col min="10762" max="11000" width="9.33203125" customWidth="1"/>
+    <col min="11009" max="11009" width="16.5" customWidth="1"/>
+    <col min="11010" max="11010" width="20" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="16.5" customWidth="1"/>
+    <col min="11012" max="11012" width="41.83203125" customWidth="1"/>
+    <col min="11013" max="11013" width="22.5" customWidth="1"/>
+    <col min="11014" max="11017" width="3.5" customWidth="1"/>
+    <col min="11018" max="11256" width="9.33203125" customWidth="1"/>
+    <col min="11265" max="11265" width="16.5" customWidth="1"/>
+    <col min="11266" max="11266" width="20" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="16.5" customWidth="1"/>
+    <col min="11268" max="11268" width="41.83203125" customWidth="1"/>
+    <col min="11269" max="11269" width="22.5" customWidth="1"/>
+    <col min="11270" max="11273" width="3.5" customWidth="1"/>
+    <col min="11274" max="11512" width="9.33203125" customWidth="1"/>
+    <col min="11521" max="11521" width="16.5" customWidth="1"/>
+    <col min="11522" max="11522" width="20" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="16.5" customWidth="1"/>
+    <col min="11524" max="11524" width="41.83203125" customWidth="1"/>
+    <col min="11525" max="11525" width="22.5" customWidth="1"/>
+    <col min="11526" max="11529" width="3.5" customWidth="1"/>
+    <col min="11530" max="11768" width="9.33203125" customWidth="1"/>
+    <col min="11777" max="11777" width="16.5" customWidth="1"/>
+    <col min="11778" max="11778" width="20" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="16.5" customWidth="1"/>
+    <col min="11780" max="11780" width="41.83203125" customWidth="1"/>
+    <col min="11781" max="11781" width="22.5" customWidth="1"/>
+    <col min="11782" max="11785" width="3.5" customWidth="1"/>
+    <col min="11786" max="12024" width="9.33203125" customWidth="1"/>
+    <col min="12033" max="12033" width="16.5" customWidth="1"/>
+    <col min="12034" max="12034" width="20" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="16.5" customWidth="1"/>
+    <col min="12036" max="12036" width="41.83203125" customWidth="1"/>
+    <col min="12037" max="12037" width="22.5" customWidth="1"/>
+    <col min="12038" max="12041" width="3.5" customWidth="1"/>
+    <col min="12042" max="12280" width="9.33203125" customWidth="1"/>
+    <col min="12289" max="12289" width="16.5" customWidth="1"/>
+    <col min="12290" max="12290" width="20" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="16.5" customWidth="1"/>
+    <col min="12292" max="12292" width="41.83203125" customWidth="1"/>
+    <col min="12293" max="12293" width="22.5" customWidth="1"/>
+    <col min="12294" max="12297" width="3.5" customWidth="1"/>
+    <col min="12298" max="12536" width="9.33203125" customWidth="1"/>
+    <col min="12545" max="12545" width="16.5" customWidth="1"/>
+    <col min="12546" max="12546" width="20" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="16.5" customWidth="1"/>
+    <col min="12548" max="12548" width="41.83203125" customWidth="1"/>
+    <col min="12549" max="12549" width="22.5" customWidth="1"/>
+    <col min="12550" max="12553" width="3.5" customWidth="1"/>
+    <col min="12554" max="12792" width="9.33203125" customWidth="1"/>
+    <col min="12801" max="12801" width="16.5" customWidth="1"/>
+    <col min="12802" max="12802" width="20" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="16.5" customWidth="1"/>
+    <col min="12804" max="12804" width="41.83203125" customWidth="1"/>
+    <col min="12805" max="12805" width="22.5" customWidth="1"/>
+    <col min="12806" max="12809" width="3.5" customWidth="1"/>
+    <col min="12810" max="13048" width="9.33203125" customWidth="1"/>
+    <col min="13057" max="13057" width="16.5" customWidth="1"/>
+    <col min="13058" max="13058" width="20" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="16.5" customWidth="1"/>
+    <col min="13060" max="13060" width="41.83203125" customWidth="1"/>
+    <col min="13061" max="13061" width="22.5" customWidth="1"/>
+    <col min="13062" max="13065" width="3.5" customWidth="1"/>
+    <col min="13066" max="13304" width="9.33203125" customWidth="1"/>
+    <col min="13313" max="13313" width="16.5" customWidth="1"/>
+    <col min="13314" max="13314" width="20" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="16.5" customWidth="1"/>
+    <col min="13316" max="13316" width="41.83203125" customWidth="1"/>
+    <col min="13317" max="13317" width="22.5" customWidth="1"/>
+    <col min="13318" max="13321" width="3.5" customWidth="1"/>
+    <col min="13322" max="13560" width="9.33203125" customWidth="1"/>
+    <col min="13569" max="13569" width="16.5" customWidth="1"/>
+    <col min="13570" max="13570" width="20" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="16.5" customWidth="1"/>
+    <col min="13572" max="13572" width="41.83203125" customWidth="1"/>
+    <col min="13573" max="13573" width="22.5" customWidth="1"/>
+    <col min="13574" max="13577" width="3.5" customWidth="1"/>
+    <col min="13578" max="13816" width="9.33203125" customWidth="1"/>
+    <col min="13825" max="13825" width="16.5" customWidth="1"/>
+    <col min="13826" max="13826" width="20" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="16.5" customWidth="1"/>
+    <col min="13828" max="13828" width="41.83203125" customWidth="1"/>
+    <col min="13829" max="13829" width="22.5" customWidth="1"/>
+    <col min="13830" max="13833" width="3.5" customWidth="1"/>
+    <col min="13834" max="14072" width="9.33203125" customWidth="1"/>
+    <col min="14081" max="14081" width="16.5" customWidth="1"/>
+    <col min="14082" max="14082" width="20" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="16.5" customWidth="1"/>
+    <col min="14084" max="14084" width="41.83203125" customWidth="1"/>
+    <col min="14085" max="14085" width="22.5" customWidth="1"/>
+    <col min="14086" max="14089" width="3.5" customWidth="1"/>
+    <col min="14090" max="14328" width="9.33203125" customWidth="1"/>
+    <col min="14337" max="14337" width="16.5" customWidth="1"/>
+    <col min="14338" max="14338" width="20" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="16.5" customWidth="1"/>
+    <col min="14340" max="14340" width="41.83203125" customWidth="1"/>
+    <col min="14341" max="14341" width="22.5" customWidth="1"/>
+    <col min="14342" max="14345" width="3.5" customWidth="1"/>
+    <col min="14346" max="14584" width="9.33203125" customWidth="1"/>
+    <col min="14593" max="14593" width="16.5" customWidth="1"/>
+    <col min="14594" max="14594" width="20" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="16.5" customWidth="1"/>
+    <col min="14596" max="14596" width="41.83203125" customWidth="1"/>
+    <col min="14597" max="14597" width="22.5" customWidth="1"/>
+    <col min="14598" max="14601" width="3.5" customWidth="1"/>
+    <col min="14602" max="14840" width="9.33203125" customWidth="1"/>
+    <col min="14849" max="14849" width="16.5" customWidth="1"/>
+    <col min="14850" max="14850" width="20" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="16.5" customWidth="1"/>
+    <col min="14852" max="14852" width="41.83203125" customWidth="1"/>
+    <col min="14853" max="14853" width="22.5" customWidth="1"/>
+    <col min="14854" max="14857" width="3.5" customWidth="1"/>
+    <col min="14858" max="15096" width="9.33203125" customWidth="1"/>
+    <col min="15105" max="15105" width="16.5" customWidth="1"/>
+    <col min="15106" max="15106" width="20" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="16.5" customWidth="1"/>
+    <col min="15108" max="15108" width="41.83203125" customWidth="1"/>
+    <col min="15109" max="15109" width="22.5" customWidth="1"/>
+    <col min="15110" max="15113" width="3.5" customWidth="1"/>
+    <col min="15114" max="15352" width="9.33203125" customWidth="1"/>
+    <col min="15361" max="15361" width="16.5" customWidth="1"/>
+    <col min="15362" max="15362" width="20" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="16.5" customWidth="1"/>
+    <col min="15364" max="15364" width="41.83203125" customWidth="1"/>
+    <col min="15365" max="15365" width="22.5" customWidth="1"/>
+    <col min="15366" max="15369" width="3.5" customWidth="1"/>
+    <col min="15370" max="15608" width="9.33203125" customWidth="1"/>
+    <col min="15617" max="15617" width="16.5" customWidth="1"/>
+    <col min="15618" max="15618" width="20" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="16.5" customWidth="1"/>
+    <col min="15620" max="15620" width="41.83203125" customWidth="1"/>
+    <col min="15621" max="15621" width="22.5" customWidth="1"/>
+    <col min="15622" max="15625" width="3.5" customWidth="1"/>
+    <col min="15626" max="15864" width="9.33203125" customWidth="1"/>
+    <col min="15873" max="15873" width="16.5" customWidth="1"/>
+    <col min="15874" max="15874" width="20" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="16.5" customWidth="1"/>
+    <col min="15876" max="15876" width="41.83203125" customWidth="1"/>
+    <col min="15877" max="15877" width="22.5" customWidth="1"/>
+    <col min="15878" max="15881" width="3.5" customWidth="1"/>
+    <col min="15882" max="16120" width="9.33203125" customWidth="1"/>
+    <col min="16129" max="16129" width="16.5" customWidth="1"/>
+    <col min="16130" max="16130" width="20" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="16.5" customWidth="1"/>
+    <col min="16132" max="16132" width="41.83203125" customWidth="1"/>
+    <col min="16133" max="16133" width="22.5" customWidth="1"/>
+    <col min="16134" max="16137" width="3.5" customWidth="1"/>
+    <col min="16138" max="16376" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16">
+        <f>COUNTA(C5:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="17">
+        <f>COUNTA(F5:F5)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <f>COUNTA(G5:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <f>COUNTA(H5:H5)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <f>COUNTA(I5:I5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="18">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <f>E6/C6</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="20">
+        <f>SUM(F6:H6)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <f>F3</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <f>G3</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>